--- a/security_report.xlsx
+++ b/security_report.xlsx
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.88.38.84</t>
+          <t>99.83.190.102</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-Sep-25</t>
+          <t>2023-Mar-01</t>
         </is>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>/wp-json/oembed/1.0/embed?url=https://airbrasive.com/&amp;format=json</t>
+          <t>/?rest_route=/wp/v2/users</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -632,7 +632,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-Sep-25</t>
+          <t>2023-Feb-24</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -680,7 +680,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.0.2</t>
+          <t>6.1.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-Dec-27</t>
+          <t>2023-Dec-14</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -738,17 +738,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.0.2</t>
+          <t>6.1.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40.88.38.84</t>
+          <t>104.21.80.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-Sep-28</t>
+          <t>2023-Mar-05</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -794,19 +794,15 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.0.2</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13.92.214.173</t>
+          <t>64.71.128.229</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-Nov-15</t>
+          <t>2023-Oct-03</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -814,12 +810,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>/wp-json/wp/v2/users</t>
+          <t>/wp-json/oembed/1.0/embed?url=https://filtnews.com/&amp;format=json</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{'adrian-wilson': 'Adrian Wilson', 'bperlmutter': 'Barry A. Perlmutter', 'bob-mcilvaine': 'Bob McIlvaine', 'bkalil': 'Brad Kalil', 'drm': 'Bradley Moakler B.S. ChE, Benjamin Dietiker B.S.E.M., Klaus Julkowski, Ph.D., ChE', 'mycelx': 'Brian Deurloo and Haluk Alper', 'camfilpower': 'Camfil Power Systems', 'cplotz': 'Chris Plotz', 'cscoble': 'Clint Scoble', 'dmorosky': 'Dan Morosky'}</t>
+          <t>N/a</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -834,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -909,12 +905,12 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13.92.214.173</t>
+          <t>40.88.38.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-Oct-06</t>
+          <t>2023-Mar-28</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -968,7 +964,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2022-Sep-18</t>
+          <t>2023-Feb-23</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -1016,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.0.2</t>
+          <t>6.1.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1026,7 +1022,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2022-Sep-22</t>
+          <t>2023-Feb-25</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -1074,7 +1070,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.0.2</t>
+          <t>6.1.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1084,7 +1080,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-Oct-13</t>
+          <t>2023-Mar-18</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -1092,17 +1088,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>/wp-json/wp/v2/users</t>
+          <t>/wp-json/oembed/1.0/embed?url=https://visitnyack.org/&amp;format=json</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'cscimone': 'Caroline Scimone', 'nllerandi': 'Nicholas Llerandi', 'swilmink': 'Susan Wilmink', 'visit-nyack': 'Visit Nyack'}</t>
+          <t>N/a</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'X-XSS-Protection': '1; mode=block', 'X-Content-Type-Options': 'nosniff', 'x-frame-options': 'ALLOWALL', 'Strict-Transport-Security': 'max-age=63072000; includeSubDomains; preload', 'referrer-policy': 'strict-origin-when-cross-origin', 'Content-Security-Policy': 'report-uri https://visitnyack.org'}</t>
+          <t>{'X-XSS-Protection': '1; mode=block', 'X-Content-Type-Options': 'nosniff', 'x-frame-options': 'SAMEORIGIN', 'Strict-Transport-Security': 'max-age=63072000; includeSubDomains; preload', 'referrer-policy': 'strict-origin-when-cross-origin', 'Content-Security-Policy': 'report-uri https://visitnyack.org'}</t>
         </is>
       </c>
       <c r="K12" t="b">
@@ -1133,16 +1129,16 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>188.114.97.4</t>
+          <t>104.21.67.182</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-Oct-09</t>
+          <t>2023-Feb-04</t>
         </is>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1156,7 +1152,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{'X-XSS-Protection': 'N/a', 'X-Content-Type-Options': 'N/a', 'x-frame-options': 'N/a', 'Strict-Transport-Security': 'N/a', 'referrer-policy': 'N/a', 'Content-Security-Policy': 'N/a'}</t>
+          <t>{'X-XSS-Protection': 'N/a', 'X-Content-Type-Options': 'N/a', 'x-frame-options': 'N/a', 'Strict-Transport-Security': 'N/a', 'referrer-policy': 'no-referrer-when-downgrade', 'Content-Security-Policy': 'N/a'}</t>
         </is>
       </c>
       <c r="K13" t="b">
@@ -1191,12 +1187,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13.92.214.173</t>
+          <t>40.88.38.84</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-Oct-15</t>
+          <t>2023-Oct-07</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1250,7 +1246,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-Oct-13</t>
+          <t>2023-Oct-14</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1299,12 +1295,12 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.231.0.221</t>
+          <t>54.163.122.236</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-Sep-23</t>
+          <t>2023-Feb-06</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1322,7 +1318,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{'X-XSS-Protection': 'N/a', 'X-Content-Type-Options': 'N/a', 'x-frame-options': 'N/a', 'Strict-Transport-Security': 'N/a', 'referrer-policy': 'N/a', 'Content-Security-Policy': 'N/a'}</t>
+          <t>{'X-XSS-Protection': '1;mode=block', 'X-Content-Type-Options': 'nosniff', 'x-frame-options': 'SAMEORIGIN', 'Strict-Transport-Security': 'max-age=63072000', 'referrer-policy': 'no-referrer-when-downgrade', 'Content-Security-Policy': "frame-ancestors 'self'"}</t>
         </is>
       </c>
       <c r="K16" t="b">
@@ -1352,17 +1348,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.0.2</t>
+          <t>6.0.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>188.114.97.13</t>
+          <t>104.21.45.14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-Nov-24</t>
+          <t>2023-Mar-22</t>
         </is>
       </c>
       <c r="G17" t="b">
